--- a/westeros_tutorial/input/Set_Grade.xlsx
+++ b/westeros_tutorial/input/Set_Grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/message_westeros/westeros_tutorial/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D10B8D-EBCC-A84F-B065-9E7B9EB75C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D5474E-0639-6B42-A579-5F14DC57D015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-980" yWindow="-18540" windowWidth="26440" windowHeight="15440" xr2:uid="{6A43CB06-E55E-0F45-9223-72CF49A70756}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -48,16 +48,34 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,8 +121,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB523F80-4F0F-7F42-985A-BF8B86148E41}" name="Table1" displayName="Table1" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{CB523F80-4F0F-7F42-985A-BF8B86148E41}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB523F80-4F0F-7F42-985A-BF8B86148E41}" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7" xr:uid="{CB523F80-4F0F-7F42-985A-BF8B86148E41}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{CF64A47B-B30E-B44B-A54A-BA060CB2EE41}" name="id"/>
     <tableColumn id="2" xr3:uid="{17AFD598-EBF2-2141-8145-C7F371926724}" name="name"/>
@@ -410,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1826FC5-ED33-DA4B-8A36-FF13F1B89160}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -442,7 +460,40 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
